--- a/tests/fixtures/hyperlinks.xlsx
+++ b/tests/fixtures/hyperlinks.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Styled hyperlinks</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hyperlink name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ya.ru</t>
   </si>
 </sst>
 </file>
@@ -144,19 +147,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -231,13 +230,31 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="str">
+        <f aca="false">HYPERLINK(Sheet2!B2, "cell hyperlink with another sheet")</f>
+        <v>cell hyperlink with another sheet</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="str">
+        <f aca="false">HYPERLINK("#Sheet2!B3", "cell hyperlink to #Sheet.B3")</f>
+        <v>cell hyperlink to #Sheet.B3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="str">
+        <f aca="false">HYPERLINK("#B3", "cell hyperlink to B3")</f>
+        <v>cell hyperlink to B3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Text"/>
     <hyperlink ref="B3" location="A11" display="Hyperlink to cell A11"/>
     <hyperlink ref="B4" location="Sheet2!A1" display="Hyperlink to cell $Sheet2.A1"/>
     <hyperlink ref="C6" r:id="rId2" display="https://example.com/?test"/>
-    <hyperlink ref="C7" r:id="rId3" display="https://example.com/?test"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://example.com/?test6"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -246,7 +263,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -255,17 +271,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://ya.ru"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
